--- a/CombinatoricsOptimization01/bin/Debug/results.xlsx
+++ b/CombinatoricsOptimization01/bin/Debug/results.xlsx
@@ -249,13 +249,13 @@
         <v>117</v>
       </c>
       <c r="F3" s="0">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G3" s="0">
-        <v>25.641025641025642</v>
+        <v>17.948717948717949</v>
       </c>
       <c r="H3" s="0">
-        <v>0.0002416</v>
+        <v>0.000382</v>
       </c>
       <c r="I3" s="0" t="s">
         <v>0</v>
@@ -284,13 +284,13 @@
         <v>5542</v>
       </c>
       <c r="F4" s="0">
-        <v>2467</v>
+        <v>2229</v>
       </c>
       <c r="G4" s="0">
-        <v>22.128712871287128</v>
+        <v>10.346534653465346</v>
       </c>
       <c r="H4" s="0">
-        <v>0.0035968</v>
+        <v>0.0035554</v>
       </c>
       <c r="I4" s="0" t="s">
         <v>0</v>
@@ -319,13 +319,13 @@
         <v>3859</v>
       </c>
       <c r="F5" s="0">
-        <v>1816</v>
+        <v>1870</v>
       </c>
       <c r="G5" s="0">
-        <v>41.213063763608091</v>
+        <v>45.412130637636082</v>
       </c>
       <c r="H5" s="0">
-        <v>0.0031337</v>
+        <v>0.00325</v>
       </c>
       <c r="I5" s="0" t="s">
         <v>0</v>
@@ -354,13 +354,13 @@
         <v>4121</v>
       </c>
       <c r="F6" s="0">
-        <v>2167</v>
+        <v>1955</v>
       </c>
       <c r="G6" s="0">
-        <v>47.114731839782756</v>
+        <v>32.72233536999321</v>
       </c>
       <c r="H6" s="0">
-        <v>0.0049381</v>
+        <v>0.0052518</v>
       </c>
       <c r="I6" s="0" t="s">
         <v>0</v>
@@ -389,13 +389,13 @@
         <v>4191</v>
       </c>
       <c r="F7" s="0">
-        <v>1655</v>
+        <v>1904</v>
       </c>
       <c r="G7" s="0">
-        <v>30.007855459544384</v>
+        <v>49.567949725058916</v>
       </c>
       <c r="H7" s="0">
-        <v>0.0098093</v>
+        <v>0.011645</v>
       </c>
       <c r="I7" s="0" t="s">
         <v>0</v>
@@ -424,13 +424,13 @@
         <v>17154</v>
       </c>
       <c r="F8" s="0">
-        <v>11040</v>
+        <v>5670</v>
       </c>
       <c r="G8" s="0">
-        <v>96.441281138790032</v>
+        <v>0.88967971530249113</v>
       </c>
       <c r="H8" s="0">
-        <v>0.0093447</v>
+        <v>0.0101279</v>
       </c>
       <c r="I8" s="0" t="s">
         <v>0</v>
@@ -459,13 +459,13 @@
         <v>5374</v>
       </c>
       <c r="F9" s="0">
-        <v>2311</v>
+        <v>2220</v>
       </c>
       <c r="G9" s="0">
-        <v>43.273403595784252</v>
+        <v>37.631742095474273</v>
       </c>
       <c r="H9" s="0">
-        <v>0.0126847</v>
+        <v>0.0092094</v>
       </c>
       <c r="I9" s="0" t="s">
         <v>0</v>
@@ -494,13 +494,13 @@
         <v>6392</v>
       </c>
       <c r="F10" s="0">
-        <v>2581</v>
+        <v>2799</v>
       </c>
       <c r="G10" s="0">
-        <v>45.326576576576578</v>
+        <v>57.601351351351354</v>
       </c>
       <c r="H10" s="0">
-        <v>0.0138612</v>
+        <v>0.0143715</v>
       </c>
       <c r="I10" s="0" t="s">
         <v>0</v>
@@ -529,13 +529,13 @@
         <v>43846</v>
       </c>
       <c r="F11" s="0">
-        <v>12472</v>
+        <v>15932</v>
       </c>
       <c r="G11" s="0">
-        <v>17.350395182536694</v>
+        <v>49.9059089198344</v>
       </c>
       <c r="H11" s="0">
-        <v>0.0262141</v>
+        <v>0.0322925</v>
       </c>
       <c r="I11" s="0" t="s">
         <v>0</v>
@@ -564,13 +564,13 @@
         <v>47645</v>
       </c>
       <c r="F12" s="0">
-        <v>17787</v>
+        <v>17959</v>
       </c>
       <c r="G12" s="0">
-        <v>23.33240881985855</v>
+        <v>24.525031202329775</v>
       </c>
       <c r="H12" s="0">
-        <v>0.0186842</v>
+        <v>0.0227741</v>
       </c>
       <c r="I12" s="0" t="s">
         <v>0</v>
@@ -599,13 +599,13 @@
         <v>1490.085599197178</v>
       </c>
       <c r="F13" s="0">
-        <v>587.55068672857726</v>
+        <v>619.9059207370758</v>
       </c>
       <c r="G13" s="0">
-        <v>37.922696415158981</v>
+        <v>45.517821769266618</v>
       </c>
       <c r="H13" s="0">
-        <v>0.0205289</v>
+        <v>0.0204745</v>
       </c>
       <c r="I13" s="0" t="s">
         <v>0</v>
@@ -634,13 +634,13 @@
         <v>27417.787785792523</v>
       </c>
       <c r="F14" s="0">
-        <v>9931.9062625986789</v>
+        <v>9107.4092637367739</v>
       </c>
       <c r="G14" s="0">
-        <v>31.687964234933425</v>
+        <v>20.755890529524979</v>
       </c>
       <c r="H14" s="0">
-        <v>0.0279717</v>
+        <v>0.0321077</v>
       </c>
       <c r="I14" s="0" t="s">
         <v>0</v>
@@ -669,13 +669,13 @@
         <v>22774</v>
       </c>
       <c r="F15" s="0">
-        <v>9593</v>
+        <v>8998</v>
       </c>
       <c r="G15" s="0">
-        <v>38.928312816799419</v>
+        <v>30.311368573497464</v>
       </c>
       <c r="H15" s="0">
-        <v>0.0212731</v>
+        <v>0.0232451</v>
       </c>
       <c r="I15" s="0" t="s">
         <v>0</v>
@@ -704,13 +704,13 @@
         <v>6790</v>
       </c>
       <c r="F16" s="0">
-        <v>2475</v>
+        <v>2966</v>
       </c>
       <c r="G16" s="0">
-        <v>53.917910447761194</v>
+        <v>84.452736318407958</v>
       </c>
       <c r="H16" s="0">
-        <v>0.0190496</v>
+        <v>0.0201647</v>
       </c>
       <c r="I16" s="0" t="s">
         <v>0</v>
@@ -739,13 +739,13 @@
         <v>8278</v>
       </c>
       <c r="F17" s="0">
-        <v>3127</v>
+        <v>2820</v>
       </c>
       <c r="G17" s="0">
-        <v>70.038064165307233</v>
+        <v>53.3442088091354</v>
       </c>
       <c r="H17" s="0">
-        <v>0.0365717</v>
+        <v>0.0436142</v>
       </c>
       <c r="I17" s="0" t="s">
         <v>0</v>
@@ -774,13 +774,13 @@
         <v>2328.0320464202246</v>
       </c>
       <c r="F18" s="0">
-        <v>733.76144051379924</v>
+        <v>1090.044724376073</v>
       </c>
       <c r="G18" s="0">
-        <v>36.386884853866029</v>
+        <v>102.61054356432584</v>
       </c>
       <c r="H18" s="0">
-        <v>0.1139376</v>
+        <v>0.0909923</v>
       </c>
       <c r="I18" s="0" t="s">
         <v>0</v>
@@ -809,13 +809,13 @@
         <v>3213.7175993333958</v>
       </c>
       <c r="F19" s="0">
-        <v>871.00764027830689</v>
+        <v>917.60951219315211</v>
       </c>
       <c r="G19" s="0">
-        <v>38.474982556169621</v>
+        <v>45.883865213537696</v>
       </c>
       <c r="H19" s="0">
-        <v>0.2758592</v>
+        <v>0.2616699</v>
       </c>
       <c r="I19" s="0" t="s">
         <v>0</v>
@@ -843,7 +843,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:DB19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -854,7 +854,107 @@
     <col min="3" max="3" width="9.140625" customWidth="1"/>
     <col min="4" max="4" width="9.140625" customWidth="1"/>
     <col min="5" max="5" width="9.140625" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" customWidth="1"/>
+    <col min="6" max="6" width="4" customWidth="1"/>
+    <col min="7" max="7" width="4" customWidth="1"/>
+    <col min="8" max="8" width="4" customWidth="1"/>
+    <col min="9" max="9" width="4" customWidth="1"/>
+    <col min="10" max="10" width="4" customWidth="1"/>
+    <col min="11" max="11" width="4" customWidth="1"/>
+    <col min="12" max="12" width="4" customWidth="1"/>
+    <col min="13" max="13" width="4" customWidth="1"/>
+    <col min="14" max="14" width="4" customWidth="1"/>
+    <col min="15" max="15" width="4" customWidth="1"/>
+    <col min="16" max="16" width="4" customWidth="1"/>
+    <col min="17" max="17" width="4" customWidth="1"/>
+    <col min="18" max="18" width="4" customWidth="1"/>
+    <col min="19" max="19" width="4" customWidth="1"/>
+    <col min="20" max="20" width="4" customWidth="1"/>
+    <col min="21" max="21" width="4" customWidth="1"/>
+    <col min="22" max="22" width="4" customWidth="1"/>
+    <col min="23" max="23" width="4" customWidth="1"/>
+    <col min="24" max="24" width="4" customWidth="1"/>
+    <col min="25" max="25" width="4" customWidth="1"/>
+    <col min="26" max="26" width="4" customWidth="1"/>
+    <col min="27" max="27" width="4" customWidth="1"/>
+    <col min="28" max="28" width="4" customWidth="1"/>
+    <col min="29" max="29" width="4" customWidth="1"/>
+    <col min="30" max="30" width="4" customWidth="1"/>
+    <col min="31" max="31" width="4" customWidth="1"/>
+    <col min="32" max="32" width="4" customWidth="1"/>
+    <col min="33" max="33" width="4" customWidth="1"/>
+    <col min="34" max="34" width="4" customWidth="1"/>
+    <col min="35" max="35" width="4" customWidth="1"/>
+    <col min="36" max="36" width="4" customWidth="1"/>
+    <col min="37" max="37" width="4" customWidth="1"/>
+    <col min="38" max="38" width="4" customWidth="1"/>
+    <col min="39" max="39" width="4" customWidth="1"/>
+    <col min="40" max="40" width="4" customWidth="1"/>
+    <col min="41" max="41" width="4" customWidth="1"/>
+    <col min="42" max="42" width="4" customWidth="1"/>
+    <col min="43" max="43" width="4" customWidth="1"/>
+    <col min="44" max="44" width="4" customWidth="1"/>
+    <col min="45" max="45" width="4" customWidth="1"/>
+    <col min="46" max="46" width="4" customWidth="1"/>
+    <col min="47" max="47" width="4" customWidth="1"/>
+    <col min="48" max="48" width="4" customWidth="1"/>
+    <col min="49" max="49" width="4" customWidth="1"/>
+    <col min="50" max="50" width="4" customWidth="1"/>
+    <col min="51" max="51" width="4" customWidth="1"/>
+    <col min="52" max="52" width="4" customWidth="1"/>
+    <col min="53" max="53" width="4" customWidth="1"/>
+    <col min="54" max="54" width="4" customWidth="1"/>
+    <col min="55" max="55" width="4" customWidth="1"/>
+    <col min="56" max="56" width="4" customWidth="1"/>
+    <col min="57" max="57" width="4" customWidth="1"/>
+    <col min="58" max="58" width="4" customWidth="1"/>
+    <col min="59" max="59" width="4" customWidth="1"/>
+    <col min="60" max="60" width="4" customWidth="1"/>
+    <col min="61" max="61" width="4" customWidth="1"/>
+    <col min="62" max="62" width="4" customWidth="1"/>
+    <col min="63" max="63" width="4" customWidth="1"/>
+    <col min="64" max="64" width="4" customWidth="1"/>
+    <col min="65" max="65" width="4" customWidth="1"/>
+    <col min="66" max="66" width="4" customWidth="1"/>
+    <col min="67" max="67" width="4" customWidth="1"/>
+    <col min="68" max="68" width="4" customWidth="1"/>
+    <col min="69" max="69" width="4" customWidth="1"/>
+    <col min="70" max="70" width="4" customWidth="1"/>
+    <col min="71" max="71" width="4" customWidth="1"/>
+    <col min="72" max="72" width="4" customWidth="1"/>
+    <col min="73" max="73" width="4" customWidth="1"/>
+    <col min="74" max="74" width="4" customWidth="1"/>
+    <col min="75" max="75" width="4" customWidth="1"/>
+    <col min="76" max="76" width="4" customWidth="1"/>
+    <col min="77" max="77" width="4" customWidth="1"/>
+    <col min="78" max="78" width="4" customWidth="1"/>
+    <col min="79" max="79" width="4" customWidth="1"/>
+    <col min="80" max="80" width="4" customWidth="1"/>
+    <col min="81" max="81" width="4" customWidth="1"/>
+    <col min="82" max="82" width="4" customWidth="1"/>
+    <col min="83" max="83" width="4" customWidth="1"/>
+    <col min="84" max="84" width="4" customWidth="1"/>
+    <col min="85" max="85" width="4" customWidth="1"/>
+    <col min="86" max="86" width="4" customWidth="1"/>
+    <col min="87" max="87" width="4" customWidth="1"/>
+    <col min="88" max="88" width="4" customWidth="1"/>
+    <col min="89" max="89" width="4" customWidth="1"/>
+    <col min="90" max="90" width="4" customWidth="1"/>
+    <col min="91" max="91" width="4" customWidth="1"/>
+    <col min="92" max="92" width="4" customWidth="1"/>
+    <col min="93" max="93" width="4" customWidth="1"/>
+    <col min="94" max="94" width="4" customWidth="1"/>
+    <col min="95" max="95" width="4" customWidth="1"/>
+    <col min="96" max="96" width="4" customWidth="1"/>
+    <col min="97" max="97" width="4" customWidth="1"/>
+    <col min="98" max="98" width="4" customWidth="1"/>
+    <col min="99" max="99" width="4" customWidth="1"/>
+    <col min="100" max="100" width="4" customWidth="1"/>
+    <col min="101" max="101" width="4" customWidth="1"/>
+    <col min="102" max="102" width="4" customWidth="1"/>
+    <col min="103" max="103" width="4" customWidth="1"/>
+    <col min="104" max="104" width="4" customWidth="1"/>
+    <col min="105" max="105" width="4" customWidth="1"/>
+    <col min="106" max="106" width="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -878,20 +978,20 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="1">
-        <v>17</v>
-      </c>
-      <c r="D2" s="1">
-        <v>39</v>
-      </c>
-      <c r="E2" s="1">
-        <v>49</v>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>28</v>
@@ -899,274 +999,2823 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
+        <v>1</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="0">
+        <v>17</v>
+      </c>
+      <c r="D3" s="0">
+        <v>39</v>
+      </c>
+      <c r="E3" s="0">
+        <v>46</v>
+      </c>
+      <c r="F3" s="0">
+        <v>4</v>
+      </c>
+      <c r="G3" s="0">
+        <v>6</v>
+      </c>
+      <c r="H3" s="0">
+        <v>9</v>
+      </c>
+      <c r="I3" s="0">
+        <v>1</v>
+      </c>
+      <c r="J3" s="0">
+        <v>7</v>
+      </c>
+      <c r="K3" s="0">
+        <v>16</v>
+      </c>
+      <c r="L3" s="0">
+        <v>8</v>
+      </c>
+      <c r="M3" s="0">
+        <v>0</v>
+      </c>
+      <c r="N3" s="0">
+        <v>11</v>
+      </c>
+      <c r="O3" s="0">
+        <v>13</v>
+      </c>
+      <c r="P3" s="0">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="0">
-        <v>29</v>
-      </c>
-      <c r="D3" s="0">
-        <v>2020</v>
-      </c>
-      <c r="E3" s="0">
-        <v>2467</v>
+      <c r="Q3" s="0">
+        <v>12</v>
+      </c>
+      <c r="R3" s="0">
+        <v>10</v>
+      </c>
+      <c r="S3" s="0">
+        <v>15</v>
+      </c>
+      <c r="T3" s="0">
+        <v>5</v>
+      </c>
+      <c r="U3" s="0">
+        <v>14</v>
+      </c>
+      <c r="V3" s="0">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
+        <v>2</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="0">
+        <v>29</v>
+      </c>
+      <c r="D4" s="0">
+        <v>2020</v>
+      </c>
+      <c r="E4" s="0">
+        <v>2229</v>
+      </c>
+      <c r="F4" s="0">
+        <v>26</v>
+      </c>
+      <c r="G4" s="0">
+        <v>7</v>
+      </c>
+      <c r="H4" s="0">
+        <v>0</v>
+      </c>
+      <c r="I4" s="0">
+        <v>20</v>
+      </c>
+      <c r="J4" s="0">
+        <v>19</v>
+      </c>
+      <c r="K4" s="0">
+        <v>9</v>
+      </c>
+      <c r="L4" s="0">
         <v>3</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="M4" s="0">
+        <v>10</v>
+      </c>
+      <c r="N4" s="0">
+        <v>21</v>
+      </c>
+      <c r="O4" s="0">
+        <v>13</v>
+      </c>
+      <c r="P4" s="0">
+        <v>16</v>
+      </c>
+      <c r="Q4" s="0">
+        <v>17</v>
+      </c>
+      <c r="R4" s="0">
+        <v>14</v>
+      </c>
+      <c r="S4" s="0">
+        <v>15</v>
+      </c>
+      <c r="T4" s="0">
+        <v>23</v>
+      </c>
+      <c r="U4" s="0">
+        <v>27</v>
+      </c>
+      <c r="V4" s="0">
+        <v>5</v>
+      </c>
+      <c r="W4" s="0">
+        <v>11</v>
+      </c>
+      <c r="X4" s="0">
+        <v>8</v>
+      </c>
+      <c r="Y4" s="0">
+        <v>4</v>
+      </c>
+      <c r="Z4" s="0">
+        <v>25</v>
+      </c>
+      <c r="AA4" s="0">
+        <v>28</v>
+      </c>
+      <c r="AB4" s="0">
+        <v>2</v>
+      </c>
+      <c r="AC4" s="0">
+        <v>1</v>
+      </c>
+      <c r="AD4" s="0">
         <v>12</v>
       </c>
-      <c r="C4" s="0">
-        <v>34</v>
-      </c>
-      <c r="D4" s="0">
-        <v>1286</v>
-      </c>
-      <c r="E4" s="0">
-        <v>1816</v>
+      <c r="AE4" s="0">
+        <v>18</v>
+      </c>
+      <c r="AF4" s="0">
+        <v>24</v>
+      </c>
+      <c r="AG4" s="0">
+        <v>6</v>
+      </c>
+      <c r="AH4" s="0">
+        <v>22</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
+        <v>3</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="0">
+        <v>34</v>
+      </c>
+      <c r="D5" s="0">
+        <v>1286</v>
+      </c>
+      <c r="E5" s="0">
+        <v>1870</v>
+      </c>
+      <c r="F5" s="0">
+        <v>20</v>
+      </c>
+      <c r="G5" s="0">
+        <v>21</v>
+      </c>
+      <c r="H5" s="0">
+        <v>31</v>
+      </c>
+      <c r="I5" s="0">
+        <v>18</v>
+      </c>
+      <c r="J5" s="0">
+        <v>12</v>
+      </c>
+      <c r="K5" s="0">
+        <v>13</v>
+      </c>
+      <c r="L5" s="0">
+        <v>0</v>
+      </c>
+      <c r="M5" s="0">
+        <v>16</v>
+      </c>
+      <c r="N5" s="0">
+        <v>15</v>
+      </c>
+      <c r="O5" s="0">
+        <v>14</v>
+      </c>
+      <c r="P5" s="0">
+        <v>11</v>
+      </c>
+      <c r="Q5" s="0">
+        <v>8</v>
+      </c>
+      <c r="R5" s="0">
+        <v>25</v>
+      </c>
+      <c r="S5" s="0">
+        <v>27</v>
+      </c>
+      <c r="T5" s="0">
+        <v>28</v>
+      </c>
+      <c r="U5" s="0">
+        <v>29</v>
+      </c>
+      <c r="V5" s="0">
+        <v>26</v>
+      </c>
+      <c r="W5" s="0">
+        <v>22</v>
+      </c>
+      <c r="X5" s="0">
+        <v>24</v>
+      </c>
+      <c r="Y5" s="0">
+        <v>23</v>
+      </c>
+      <c r="Z5" s="0">
+        <v>19</v>
+      </c>
+      <c r="AA5" s="0">
+        <v>17</v>
+      </c>
+      <c r="AB5" s="0">
+        <v>32</v>
+      </c>
+      <c r="AC5" s="0">
+        <v>7</v>
+      </c>
+      <c r="AD5" s="0">
+        <v>1</v>
+      </c>
+      <c r="AE5" s="0">
+        <v>30</v>
+      </c>
+      <c r="AF5" s="0">
+        <v>33</v>
+      </c>
+      <c r="AG5" s="0">
+        <v>2</v>
+      </c>
+      <c r="AH5" s="0">
+        <v>3</v>
+      </c>
+      <c r="AI5" s="0">
+        <v>5</v>
+      </c>
+      <c r="AJ5" s="0">
+        <v>6</v>
+      </c>
+      <c r="AK5" s="0">
         <v>4</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="0">
-        <v>36</v>
-      </c>
-      <c r="D5" s="0">
-        <v>1473</v>
-      </c>
-      <c r="E5" s="0">
-        <v>2167</v>
+      <c r="AL5" s="0">
+        <v>9</v>
+      </c>
+      <c r="AM5" s="0">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
+        <v>4</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="0">
+        <v>36</v>
+      </c>
+      <c r="D6" s="0">
+        <v>1473</v>
+      </c>
+      <c r="E6" s="0">
+        <v>1955</v>
+      </c>
+      <c r="F6" s="0">
+        <v>19</v>
+      </c>
+      <c r="G6" s="0">
+        <v>10</v>
+      </c>
+      <c r="H6" s="0">
+        <v>33</v>
+      </c>
+      <c r="I6" s="0">
+        <v>18</v>
+      </c>
+      <c r="J6" s="0">
+        <v>17</v>
+      </c>
+      <c r="K6" s="0">
+        <v>26</v>
+      </c>
+      <c r="L6" s="0">
+        <v>24</v>
+      </c>
+      <c r="M6" s="0">
+        <v>2</v>
+      </c>
+      <c r="N6" s="0">
+        <v>4</v>
+      </c>
+      <c r="O6" s="0">
         <v>5</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="P6" s="0">
+        <v>11</v>
+      </c>
+      <c r="Q6" s="0">
         <v>14</v>
       </c>
-      <c r="C6" s="0">
-        <v>42</v>
-      </c>
-      <c r="D6" s="0">
-        <v>1273</v>
-      </c>
-      <c r="E6" s="0">
-        <v>1655</v>
+      <c r="R6" s="0">
+        <v>15</v>
+      </c>
+      <c r="S6" s="0">
+        <v>12</v>
+      </c>
+      <c r="T6" s="0">
+        <v>6</v>
+      </c>
+      <c r="U6" s="0">
+        <v>7</v>
+      </c>
+      <c r="V6" s="0">
+        <v>34</v>
+      </c>
+      <c r="W6" s="0">
+        <v>8</v>
+      </c>
+      <c r="X6" s="0">
+        <v>9</v>
+      </c>
+      <c r="Y6" s="0">
+        <v>13</v>
+      </c>
+      <c r="Z6" s="0">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="0">
+        <v>16</v>
+      </c>
+      <c r="AB6" s="0">
+        <v>1</v>
+      </c>
+      <c r="AC6" s="0">
+        <v>3</v>
+      </c>
+      <c r="AD6" s="0">
+        <v>35</v>
+      </c>
+      <c r="AE6" s="0">
+        <v>32</v>
+      </c>
+      <c r="AF6" s="0">
+        <v>27</v>
+      </c>
+      <c r="AG6" s="0">
+        <v>23</v>
+      </c>
+      <c r="AH6" s="0">
+        <v>20</v>
+      </c>
+      <c r="AI6" s="0">
+        <v>21</v>
+      </c>
+      <c r="AJ6" s="0">
+        <v>22</v>
+      </c>
+      <c r="AK6" s="0">
+        <v>28</v>
+      </c>
+      <c r="AL6" s="0">
+        <v>29</v>
+      </c>
+      <c r="AM6" s="0">
+        <v>31</v>
+      </c>
+      <c r="AN6" s="0">
+        <v>30</v>
+      </c>
+      <c r="AO6" s="0">
+        <v>25</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
+        <v>5</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="0">
+        <v>42</v>
+      </c>
+      <c r="D7" s="0">
+        <v>1273</v>
+      </c>
+      <c r="E7" s="0">
+        <v>1904</v>
+      </c>
+      <c r="F7" s="0">
+        <v>27</v>
+      </c>
+      <c r="G7" s="0">
+        <v>32</v>
+      </c>
+      <c r="H7" s="0">
+        <v>22</v>
+      </c>
+      <c r="I7" s="0">
+        <v>38</v>
+      </c>
+      <c r="J7" s="0">
+        <v>34</v>
+      </c>
+      <c r="K7" s="0">
+        <v>31</v>
+      </c>
+      <c r="L7" s="0">
+        <v>36</v>
+      </c>
+      <c r="M7" s="0">
+        <v>35</v>
+      </c>
+      <c r="N7" s="0">
+        <v>33</v>
+      </c>
+      <c r="O7" s="0">
+        <v>20</v>
+      </c>
+      <c r="P7" s="0">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="0">
+        <v>1</v>
+      </c>
+      <c r="R7" s="0">
+        <v>7</v>
+      </c>
+      <c r="S7" s="0">
+        <v>17</v>
+      </c>
+      <c r="T7" s="0">
+        <v>37</v>
+      </c>
+      <c r="U7" s="0">
+        <v>15</v>
+      </c>
+      <c r="V7" s="0">
+        <v>5</v>
+      </c>
+      <c r="W7" s="0">
+        <v>25</v>
+      </c>
+      <c r="X7" s="0">
+        <v>41</v>
+      </c>
+      <c r="Y7" s="0">
+        <v>23</v>
+      </c>
+      <c r="Z7" s="0">
+        <v>9</v>
+      </c>
+      <c r="AA7" s="0">
+        <v>29</v>
+      </c>
+      <c r="AB7" s="0">
+        <v>30</v>
+      </c>
+      <c r="AC7" s="0">
+        <v>28</v>
+      </c>
+      <c r="AD7" s="0">
+        <v>2</v>
+      </c>
+      <c r="AE7" s="0">
+        <v>4</v>
+      </c>
+      <c r="AF7" s="0">
         <v>6</v>
       </c>
-      <c r="B7" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="0">
-        <v>43</v>
-      </c>
-      <c r="D7" s="0">
-        <v>5620</v>
-      </c>
-      <c r="E7" s="0">
-        <v>11040</v>
+      <c r="AG7" s="0">
+        <v>26</v>
+      </c>
+      <c r="AH7" s="0">
+        <v>18</v>
+      </c>
+      <c r="AI7" s="0">
+        <v>12</v>
+      </c>
+      <c r="AJ7" s="0">
+        <v>10</v>
+      </c>
+      <c r="AK7" s="0">
+        <v>8</v>
+      </c>
+      <c r="AL7" s="0">
+        <v>39</v>
+      </c>
+      <c r="AM7" s="0">
+        <v>21</v>
+      </c>
+      <c r="AN7" s="0">
+        <v>24</v>
+      </c>
+      <c r="AO7" s="0">
+        <v>40</v>
+      </c>
+      <c r="AP7" s="0">
+        <v>11</v>
+      </c>
+      <c r="AQ7" s="0">
+        <v>13</v>
+      </c>
+      <c r="AR7" s="0">
+        <v>19</v>
+      </c>
+      <c r="AS7" s="0">
+        <v>16</v>
+      </c>
+      <c r="AT7" s="0">
+        <v>14</v>
+      </c>
+      <c r="AU7" s="0">
+        <v>3</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
+        <v>6</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="0">
+        <v>43</v>
+      </c>
+      <c r="D8" s="0">
+        <v>5620</v>
+      </c>
+      <c r="E8" s="0">
+        <v>5670</v>
+      </c>
+      <c r="F8" s="0">
+        <v>25</v>
+      </c>
+      <c r="G8" s="0">
+        <v>37</v>
+      </c>
+      <c r="H8" s="0">
+        <v>6</v>
+      </c>
+      <c r="I8" s="0">
+        <v>5</v>
+      </c>
+      <c r="J8" s="0">
+        <v>36</v>
+      </c>
+      <c r="K8" s="0">
+        <v>1</v>
+      </c>
+      <c r="L8" s="0">
+        <v>3</v>
+      </c>
+      <c r="M8" s="0">
+        <v>2</v>
+      </c>
+      <c r="N8" s="0">
+        <v>32</v>
+      </c>
+      <c r="O8" s="0">
+        <v>31</v>
+      </c>
+      <c r="P8" s="0">
+        <v>10</v>
+      </c>
+      <c r="Q8" s="0">
+        <v>9</v>
+      </c>
+      <c r="R8" s="0">
+        <v>11</v>
+      </c>
+      <c r="S8" s="0">
+        <v>8</v>
+      </c>
+      <c r="T8" s="0">
         <v>7</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="U8" s="0">
+        <v>30</v>
+      </c>
+      <c r="V8" s="0">
+        <v>29</v>
+      </c>
+      <c r="W8" s="0">
+        <v>27</v>
+      </c>
+      <c r="X8" s="0">
+        <v>28</v>
+      </c>
+      <c r="Y8" s="0">
+        <v>38</v>
+      </c>
+      <c r="Z8" s="0">
+        <v>39</v>
+      </c>
+      <c r="AA8" s="0">
+        <v>42</v>
+      </c>
+      <c r="AB8" s="0">
+        <v>40</v>
+      </c>
+      <c r="AC8" s="0">
+        <v>41</v>
+      </c>
+      <c r="AD8" s="0">
+        <v>26</v>
+      </c>
+      <c r="AE8" s="0">
+        <v>34</v>
+      </c>
+      <c r="AF8" s="0">
+        <v>33</v>
+      </c>
+      <c r="AG8" s="0">
+        <v>12</v>
+      </c>
+      <c r="AH8" s="0">
+        <v>13</v>
+      </c>
+      <c r="AI8" s="0">
+        <v>14</v>
+      </c>
+      <c r="AJ8" s="0">
+        <v>17</v>
+      </c>
+      <c r="AK8" s="0">
         <v>16</v>
       </c>
-      <c r="C8" s="0">
-        <v>45</v>
-      </c>
-      <c r="D8" s="0">
-        <v>1613</v>
-      </c>
-      <c r="E8" s="0">
-        <v>2311</v>
+      <c r="AL8" s="0">
+        <v>20</v>
+      </c>
+      <c r="AM8" s="0">
+        <v>18</v>
+      </c>
+      <c r="AN8" s="0">
+        <v>19</v>
+      </c>
+      <c r="AO8" s="0">
+        <v>15</v>
+      </c>
+      <c r="AP8" s="0">
+        <v>4</v>
+      </c>
+      <c r="AQ8" s="0">
+        <v>0</v>
+      </c>
+      <c r="AR8" s="0">
+        <v>35</v>
+      </c>
+      <c r="AS8" s="0">
+        <v>22</v>
+      </c>
+      <c r="AT8" s="0">
+        <v>21</v>
+      </c>
+      <c r="AU8" s="0">
+        <v>23</v>
+      </c>
+      <c r="AV8" s="0">
+        <v>24</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
+        <v>7</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="0">
+        <v>45</v>
+      </c>
+      <c r="D9" s="0">
+        <v>1613</v>
+      </c>
+      <c r="E9" s="0">
+        <v>2220</v>
+      </c>
+      <c r="F9" s="0">
+        <v>34</v>
+      </c>
+      <c r="G9" s="0">
+        <v>44</v>
+      </c>
+      <c r="H9" s="0">
+        <v>3</v>
+      </c>
+      <c r="I9" s="0">
+        <v>4</v>
+      </c>
+      <c r="J9" s="0">
+        <v>7</v>
+      </c>
+      <c r="K9" s="0">
+        <v>19</v>
+      </c>
+      <c r="L9" s="0">
+        <v>1</v>
+      </c>
+      <c r="M9" s="0">
+        <v>2</v>
+      </c>
+      <c r="N9" s="0">
+        <v>0</v>
+      </c>
+      <c r="O9" s="0">
+        <v>21</v>
+      </c>
+      <c r="P9" s="0">
+        <v>31</v>
+      </c>
+      <c r="Q9" s="0">
+        <v>25</v>
+      </c>
+      <c r="R9" s="0">
+        <v>26</v>
+      </c>
+      <c r="S9" s="0">
+        <v>27</v>
+      </c>
+      <c r="T9" s="0">
+        <v>28</v>
+      </c>
+      <c r="U9" s="0">
+        <v>32</v>
+      </c>
+      <c r="V9" s="0">
+        <v>36</v>
+      </c>
+      <c r="W9" s="0">
+        <v>37</v>
+      </c>
+      <c r="X9" s="0">
+        <v>38</v>
+      </c>
+      <c r="Y9" s="0">
+        <v>5</v>
+      </c>
+      <c r="Z9" s="0">
+        <v>20</v>
+      </c>
+      <c r="AA9" s="0">
+        <v>43</v>
+      </c>
+      <c r="AB9" s="0">
+        <v>11</v>
+      </c>
+      <c r="AC9" s="0">
+        <v>12</v>
+      </c>
+      <c r="AD9" s="0">
+        <v>13</v>
+      </c>
+      <c r="AE9" s="0">
+        <v>15</v>
+      </c>
+      <c r="AF9" s="0">
+        <v>17</v>
+      </c>
+      <c r="AG9" s="0">
+        <v>14</v>
+      </c>
+      <c r="AH9" s="0">
+        <v>10</v>
+      </c>
+      <c r="AI9" s="0">
+        <v>9</v>
+      </c>
+      <c r="AJ9" s="0">
         <v>8</v>
       </c>
-      <c r="B9" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="0">
-        <v>48</v>
-      </c>
-      <c r="D9" s="0">
-        <v>1776</v>
-      </c>
-      <c r="E9" s="0">
-        <v>2581</v>
+      <c r="AK9" s="0">
+        <v>41</v>
+      </c>
+      <c r="AL9" s="0">
+        <v>6</v>
+      </c>
+      <c r="AM9" s="0">
+        <v>39</v>
+      </c>
+      <c r="AN9" s="0">
+        <v>40</v>
+      </c>
+      <c r="AO9" s="0">
+        <v>35</v>
+      </c>
+      <c r="AP9" s="0">
+        <v>30</v>
+      </c>
+      <c r="AQ9" s="0">
+        <v>29</v>
+      </c>
+      <c r="AR9" s="0">
+        <v>24</v>
+      </c>
+      <c r="AS9" s="0">
+        <v>42</v>
+      </c>
+      <c r="AT9" s="0">
+        <v>23</v>
+      </c>
+      <c r="AU9" s="0">
+        <v>22</v>
+      </c>
+      <c r="AV9" s="0">
+        <v>18</v>
+      </c>
+      <c r="AW9" s="0">
+        <v>16</v>
+      </c>
+      <c r="AX9" s="0">
+        <v>33</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C10" s="0">
         <v>48</v>
       </c>
       <c r="D10" s="0">
-        <v>10628</v>
+        <v>1776</v>
       </c>
       <c r="E10" s="0">
-        <v>12472</v>
+        <v>2799</v>
+      </c>
+      <c r="F10" s="0">
+        <v>22</v>
+      </c>
+      <c r="G10" s="0">
+        <v>44</v>
+      </c>
+      <c r="H10" s="0">
+        <v>17</v>
+      </c>
+      <c r="I10" s="0">
+        <v>12</v>
+      </c>
+      <c r="J10" s="0">
+        <v>7</v>
+      </c>
+      <c r="K10" s="0">
+        <v>35</v>
+      </c>
+      <c r="L10" s="0">
+        <v>14</v>
+      </c>
+      <c r="M10" s="0">
+        <v>11</v>
+      </c>
+      <c r="N10" s="0">
+        <v>10</v>
+      </c>
+      <c r="O10" s="0">
+        <v>37</v>
+      </c>
+      <c r="P10" s="0">
+        <v>38</v>
+      </c>
+      <c r="Q10" s="0">
+        <v>9</v>
+      </c>
+      <c r="R10" s="0">
+        <v>2</v>
+      </c>
+      <c r="S10" s="0">
+        <v>41</v>
+      </c>
+      <c r="T10" s="0">
+        <v>43</v>
+      </c>
+      <c r="U10" s="0">
+        <v>42</v>
+      </c>
+      <c r="V10" s="0">
+        <v>40</v>
+      </c>
+      <c r="W10" s="0">
+        <v>26</v>
+      </c>
+      <c r="X10" s="0">
+        <v>1</v>
+      </c>
+      <c r="Y10" s="0">
+        <v>8</v>
+      </c>
+      <c r="Z10" s="0">
+        <v>32</v>
+      </c>
+      <c r="AA10" s="0">
+        <v>31</v>
+      </c>
+      <c r="AB10" s="0">
+        <v>6</v>
+      </c>
+      <c r="AC10" s="0">
+        <v>18</v>
+      </c>
+      <c r="AD10" s="0">
+        <v>13</v>
+      </c>
+      <c r="AE10" s="0">
+        <v>46</v>
+      </c>
+      <c r="AF10" s="0">
+        <v>36</v>
+      </c>
+      <c r="AG10" s="0">
+        <v>16</v>
+      </c>
+      <c r="AH10" s="0">
+        <v>45</v>
+      </c>
+      <c r="AI10" s="0">
+        <v>20</v>
+      </c>
+      <c r="AJ10" s="0">
+        <v>0</v>
+      </c>
+      <c r="AK10" s="0">
+        <v>25</v>
+      </c>
+      <c r="AL10" s="0">
+        <v>47</v>
+      </c>
+      <c r="AM10" s="0">
+        <v>28</v>
+      </c>
+      <c r="AN10" s="0">
+        <v>3</v>
+      </c>
+      <c r="AO10" s="0">
+        <v>24</v>
+      </c>
+      <c r="AP10" s="0">
+        <v>33</v>
+      </c>
+      <c r="AQ10" s="0">
+        <v>27</v>
+      </c>
+      <c r="AR10" s="0">
+        <v>4</v>
+      </c>
+      <c r="AS10" s="0">
+        <v>29</v>
+      </c>
+      <c r="AT10" s="0">
+        <v>30</v>
+      </c>
+      <c r="AU10" s="0">
+        <v>5</v>
+      </c>
+      <c r="AV10" s="0">
+        <v>23</v>
+      </c>
+      <c r="AW10" s="0">
+        <v>34</v>
+      </c>
+      <c r="AX10" s="0">
+        <v>15</v>
+      </c>
+      <c r="AY10" s="0">
+        <v>19</v>
+      </c>
+      <c r="AZ10" s="0">
+        <v>39</v>
+      </c>
+      <c r="BA10" s="0">
+        <v>21</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11" s="0">
         <v>48</v>
       </c>
       <c r="D11" s="0">
-        <v>14422</v>
+        <v>10628</v>
       </c>
       <c r="E11" s="0">
-        <v>17787</v>
+        <v>15932</v>
+      </c>
+      <c r="F11" s="0">
+        <v>28</v>
+      </c>
+      <c r="G11" s="0">
+        <v>24</v>
+      </c>
+      <c r="H11" s="0">
+        <v>19</v>
+      </c>
+      <c r="I11" s="0">
+        <v>27</v>
+      </c>
+      <c r="J11" s="0">
+        <v>35</v>
+      </c>
+      <c r="K11" s="0">
+        <v>45</v>
+      </c>
+      <c r="L11" s="0">
+        <v>14</v>
+      </c>
+      <c r="M11" s="0">
+        <v>8</v>
+      </c>
+      <c r="N11" s="0">
+        <v>39</v>
+      </c>
+      <c r="O11" s="0">
+        <v>2</v>
+      </c>
+      <c r="P11" s="0">
+        <v>13</v>
+      </c>
+      <c r="Q11" s="0">
+        <v>22</v>
+      </c>
+      <c r="R11" s="0">
+        <v>10</v>
+      </c>
+      <c r="S11" s="0">
+        <v>11</v>
+      </c>
+      <c r="T11" s="0">
+        <v>17</v>
+      </c>
+      <c r="U11" s="0">
+        <v>6</v>
+      </c>
+      <c r="V11" s="0">
+        <v>43</v>
+      </c>
+      <c r="W11" s="0">
+        <v>30</v>
+      </c>
+      <c r="X11" s="0">
+        <v>32</v>
+      </c>
+      <c r="Y11" s="0">
+        <v>20</v>
+      </c>
+      <c r="Z11" s="0">
+        <v>31</v>
+      </c>
+      <c r="AA11" s="0">
+        <v>23</v>
+      </c>
+      <c r="AB11" s="0">
+        <v>44</v>
+      </c>
+      <c r="AC11" s="0">
+        <v>34</v>
+      </c>
+      <c r="AD11" s="0">
+        <v>3</v>
+      </c>
+      <c r="AE11" s="0">
+        <v>25</v>
+      </c>
+      <c r="AF11" s="0">
+        <v>38</v>
+      </c>
+      <c r="AG11" s="0">
+        <v>12</v>
+      </c>
+      <c r="AH11" s="0">
+        <v>46</v>
+      </c>
+      <c r="AI11" s="0">
+        <v>29</v>
+      </c>
+      <c r="AJ11" s="0">
+        <v>5</v>
+      </c>
+      <c r="AK11" s="0">
+        <v>42</v>
+      </c>
+      <c r="AL11" s="0">
+        <v>16</v>
+      </c>
+      <c r="AM11" s="0">
+        <v>26</v>
+      </c>
+      <c r="AN11" s="0">
+        <v>18</v>
+      </c>
+      <c r="AO11" s="0">
+        <v>36</v>
+      </c>
+      <c r="AP11" s="0">
+        <v>37</v>
+      </c>
+      <c r="AQ11" s="0">
+        <v>7</v>
+      </c>
+      <c r="AR11" s="0">
+        <v>0</v>
+      </c>
+      <c r="AS11" s="0">
+        <v>21</v>
+      </c>
+      <c r="AT11" s="0">
+        <v>15</v>
+      </c>
+      <c r="AU11" s="0">
+        <v>40</v>
+      </c>
+      <c r="AV11" s="0">
+        <v>33</v>
+      </c>
+      <c r="AW11" s="0">
+        <v>4</v>
+      </c>
+      <c r="AX11" s="0">
+        <v>47</v>
+      </c>
+      <c r="AY11" s="0">
+        <v>41</v>
+      </c>
+      <c r="AZ11" s="0">
+        <v>9</v>
+      </c>
+      <c r="BA11" s="0">
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
+        <v>10</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="0">
+        <v>48</v>
+      </c>
+      <c r="D12" s="0">
+        <v>14422</v>
+      </c>
+      <c r="E12" s="0">
+        <v>17959</v>
+      </c>
+      <c r="F12" s="0">
+        <v>33</v>
+      </c>
+      <c r="G12" s="0">
+        <v>0</v>
+      </c>
+      <c r="H12" s="0">
+        <v>7</v>
+      </c>
+      <c r="I12" s="0">
+        <v>37</v>
+      </c>
+      <c r="J12" s="0">
+        <v>18</v>
+      </c>
+      <c r="K12" s="0">
+        <v>36</v>
+      </c>
+      <c r="L12" s="0">
+        <v>5</v>
+      </c>
+      <c r="M12" s="0">
+        <v>27</v>
+      </c>
+      <c r="N12" s="0">
+        <v>6</v>
+      </c>
+      <c r="O12" s="0">
+        <v>45</v>
+      </c>
+      <c r="P12" s="0">
+        <v>32</v>
+      </c>
+      <c r="Q12" s="0">
+        <v>17</v>
+      </c>
+      <c r="R12" s="0">
+        <v>35</v>
+      </c>
+      <c r="S12" s="0">
+        <v>43</v>
+      </c>
+      <c r="T12" s="0">
+        <v>30</v>
+      </c>
+      <c r="U12" s="0">
+        <v>8</v>
+      </c>
+      <c r="V12" s="0">
+        <v>39</v>
+      </c>
+      <c r="W12" s="0">
+        <v>14</v>
+      </c>
+      <c r="X12" s="0">
+        <v>10</v>
+      </c>
+      <c r="Y12" s="0">
+        <v>22</v>
+      </c>
+      <c r="Z12" s="0">
         <v>11</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="AA12" s="0">
+        <v>42</v>
+      </c>
+      <c r="AB12" s="0">
+        <v>16</v>
+      </c>
+      <c r="AC12" s="0">
+        <v>26</v>
+      </c>
+      <c r="AD12" s="0">
+        <v>29</v>
+      </c>
+      <c r="AE12" s="0">
+        <v>19</v>
+      </c>
+      <c r="AF12" s="0">
+        <v>46</v>
+      </c>
+      <c r="AG12" s="0">
         <v>20</v>
       </c>
-      <c r="C12" s="0">
-        <v>51</v>
-      </c>
-      <c r="D12" s="0">
-        <v>426</v>
-      </c>
-      <c r="E12" s="0">
-        <v>587.55068672857726</v>
+      <c r="AH12" s="0">
+        <v>31</v>
+      </c>
+      <c r="AI12" s="0">
+        <v>23</v>
+      </c>
+      <c r="AJ12" s="0">
+        <v>9</v>
+      </c>
+      <c r="AK12" s="0">
+        <v>44</v>
+      </c>
+      <c r="AL12" s="0">
+        <v>34</v>
+      </c>
+      <c r="AM12" s="0">
+        <v>3</v>
+      </c>
+      <c r="AN12" s="0">
+        <v>25</v>
+      </c>
+      <c r="AO12" s="0">
+        <v>41</v>
+      </c>
+      <c r="AP12" s="0">
+        <v>4</v>
+      </c>
+      <c r="AQ12" s="0">
+        <v>47</v>
+      </c>
+      <c r="AR12" s="0">
+        <v>38</v>
+      </c>
+      <c r="AS12" s="0">
+        <v>12</v>
+      </c>
+      <c r="AT12" s="0">
+        <v>24</v>
+      </c>
+      <c r="AU12" s="0">
+        <v>13</v>
+      </c>
+      <c r="AV12" s="0">
+        <v>2</v>
+      </c>
+      <c r="AW12" s="0">
+        <v>21</v>
+      </c>
+      <c r="AX12" s="0">
+        <v>15</v>
+      </c>
+      <c r="AY12" s="0">
+        <v>40</v>
+      </c>
+      <c r="AZ12" s="0">
+        <v>1</v>
+      </c>
+      <c r="BA12" s="0">
+        <v>28</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
+        <v>11</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="0">
+        <v>51</v>
+      </c>
+      <c r="D13" s="0">
+        <v>426</v>
+      </c>
+      <c r="E13" s="0">
+        <v>619.90592073707558</v>
+      </c>
+      <c r="F13" s="0">
+        <v>3</v>
+      </c>
+      <c r="G13" s="0">
+        <v>43</v>
+      </c>
+      <c r="H13" s="0">
+        <v>29</v>
+      </c>
+      <c r="I13" s="0">
+        <v>33</v>
+      </c>
+      <c r="J13" s="0">
+        <v>8</v>
+      </c>
+      <c r="K13" s="0">
+        <v>37</v>
+      </c>
+      <c r="L13" s="0">
+        <v>10</v>
+      </c>
+      <c r="M13" s="0">
+        <v>26</v>
+      </c>
+      <c r="N13" s="0">
+        <v>5</v>
+      </c>
+      <c r="O13" s="0">
+        <v>17</v>
+      </c>
+      <c r="P13" s="0">
+        <v>46</v>
+      </c>
+      <c r="Q13" s="0">
+        <v>50</v>
+      </c>
+      <c r="R13" s="0">
+        <v>45</v>
+      </c>
+      <c r="S13" s="0">
+        <v>31</v>
+      </c>
+      <c r="T13" s="0">
+        <v>1</v>
+      </c>
+      <c r="U13" s="0">
+        <v>19</v>
+      </c>
+      <c r="V13" s="0">
+        <v>28</v>
+      </c>
+      <c r="W13" s="0">
+        <v>20</v>
+      </c>
+      <c r="X13" s="0">
+        <v>49</v>
+      </c>
+      <c r="Y13" s="0">
+        <v>15</v>
+      </c>
+      <c r="Z13" s="0">
+        <v>11</v>
+      </c>
+      <c r="AA13" s="0">
+        <v>16</v>
+      </c>
+      <c r="AB13" s="0">
+        <v>36</v>
+      </c>
+      <c r="AC13" s="0">
+        <v>4</v>
+      </c>
+      <c r="AD13" s="0">
+        <v>48</v>
+      </c>
+      <c r="AE13" s="0">
+        <v>9</v>
+      </c>
+      <c r="AF13" s="0">
+        <v>38</v>
+      </c>
+      <c r="AG13" s="0">
+        <v>32</v>
+      </c>
+      <c r="AH13" s="0">
+        <v>44</v>
+      </c>
+      <c r="AI13" s="0">
+        <v>14</v>
+      </c>
+      <c r="AJ13" s="0">
+        <v>0</v>
+      </c>
+      <c r="AK13" s="0">
+        <v>21</v>
+      </c>
+      <c r="AL13" s="0">
+        <v>7</v>
+      </c>
+      <c r="AM13" s="0">
+        <v>30</v>
+      </c>
+      <c r="AN13" s="0">
+        <v>27</v>
+      </c>
+      <c r="AO13" s="0">
+        <v>2</v>
+      </c>
+      <c r="AP13" s="0">
+        <v>35</v>
+      </c>
+      <c r="AQ13" s="0">
+        <v>34</v>
+      </c>
+      <c r="AR13" s="0">
+        <v>41</v>
+      </c>
+      <c r="AS13" s="0">
+        <v>18</v>
+      </c>
+      <c r="AT13" s="0">
+        <v>39</v>
+      </c>
+      <c r="AU13" s="0">
+        <v>40</v>
+      </c>
+      <c r="AV13" s="0">
         <v>12</v>
       </c>
-      <c r="B13" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="0">
-        <v>52</v>
-      </c>
-      <c r="D13" s="0">
-        <v>7542</v>
-      </c>
-      <c r="E13" s="0">
-        <v>9931.9062625986789</v>
+      <c r="AW13" s="0">
+        <v>24</v>
+      </c>
+      <c r="AX13" s="0">
+        <v>13</v>
+      </c>
+      <c r="AY13" s="0">
+        <v>23</v>
+      </c>
+      <c r="AZ13" s="0">
+        <v>42</v>
+      </c>
+      <c r="BA13" s="0">
+        <v>22</v>
+      </c>
+      <c r="BB13" s="0">
+        <v>6</v>
+      </c>
+      <c r="BC13" s="0">
+        <v>25</v>
+      </c>
+      <c r="BD13" s="0">
+        <v>47</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
+        <v>12</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="0">
+        <v>52</v>
+      </c>
+      <c r="D14" s="0">
+        <v>7542</v>
+      </c>
+      <c r="E14" s="0">
+        <v>9107.4092637367612</v>
+      </c>
+      <c r="F14" s="0">
+        <v>42</v>
+      </c>
+      <c r="G14" s="0">
+        <v>3</v>
+      </c>
+      <c r="H14" s="0">
+        <v>5</v>
+      </c>
+      <c r="I14" s="0">
+        <v>23</v>
+      </c>
+      <c r="J14" s="0">
+        <v>4</v>
+      </c>
+      <c r="K14" s="0">
+        <v>14</v>
+      </c>
+      <c r="L14" s="0">
+        <v>44</v>
+      </c>
+      <c r="M14" s="0">
+        <v>18</v>
+      </c>
+      <c r="N14" s="0">
+        <v>40</v>
+      </c>
+      <c r="O14" s="0">
+        <v>7</v>
+      </c>
+      <c r="P14" s="0">
+        <v>8</v>
+      </c>
+      <c r="Q14" s="0">
+        <v>9</v>
+      </c>
+      <c r="R14" s="0">
+        <v>37</v>
+      </c>
+      <c r="S14" s="0">
+        <v>39</v>
+      </c>
+      <c r="T14" s="0">
+        <v>38</v>
+      </c>
+      <c r="U14" s="0">
+        <v>35</v>
+      </c>
+      <c r="V14" s="0">
+        <v>48</v>
+      </c>
+      <c r="W14" s="0">
+        <v>31</v>
+      </c>
+      <c r="X14" s="0">
+        <v>2</v>
+      </c>
+      <c r="Y14" s="0">
+        <v>16</v>
+      </c>
+      <c r="Z14" s="0">
+        <v>17</v>
+      </c>
+      <c r="AA14" s="0">
+        <v>30</v>
+      </c>
+      <c r="AB14" s="0">
+        <v>21</v>
+      </c>
+      <c r="AC14" s="0">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="0">
+        <v>34</v>
+      </c>
+      <c r="AE14" s="0">
+        <v>43</v>
+      </c>
+      <c r="AF14" s="0">
+        <v>49</v>
+      </c>
+      <c r="AG14" s="0">
+        <v>19</v>
+      </c>
+      <c r="AH14" s="0">
+        <v>22</v>
+      </c>
+      <c r="AI14" s="0">
+        <v>20</v>
+      </c>
+      <c r="AJ14" s="0">
+        <v>41</v>
+      </c>
+      <c r="AK14" s="0">
+        <v>6</v>
+      </c>
+      <c r="AL14" s="0">
+        <v>1</v>
+      </c>
+      <c r="AM14" s="0">
+        <v>29</v>
+      </c>
+      <c r="AN14" s="0">
+        <v>28</v>
+      </c>
+      <c r="AO14" s="0">
+        <v>15</v>
+      </c>
+      <c r="AP14" s="0">
+        <v>45</v>
+      </c>
+      <c r="AQ14" s="0">
+        <v>33</v>
+      </c>
+      <c r="AR14" s="0">
+        <v>36</v>
+      </c>
+      <c r="AS14" s="0">
+        <v>47</v>
+      </c>
+      <c r="AT14" s="0">
+        <v>24</v>
+      </c>
+      <c r="AU14" s="0">
+        <v>11</v>
+      </c>
+      <c r="AV14" s="0">
+        <v>25</v>
+      </c>
+      <c r="AW14" s="0">
+        <v>46</v>
+      </c>
+      <c r="AX14" s="0">
         <v>13</v>
       </c>
-      <c r="B14" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="0">
-        <v>53</v>
-      </c>
-      <c r="D14" s="0">
-        <v>6905</v>
-      </c>
-      <c r="E14" s="0">
-        <v>9593</v>
+      <c r="AY14" s="0">
+        <v>51</v>
+      </c>
+      <c r="AZ14" s="0">
+        <v>12</v>
+      </c>
+      <c r="BA14" s="0">
+        <v>26</v>
+      </c>
+      <c r="BB14" s="0">
+        <v>27</v>
+      </c>
+      <c r="BC14" s="0">
+        <v>10</v>
+      </c>
+      <c r="BD14" s="0">
+        <v>50</v>
+      </c>
+      <c r="BE14" s="0">
+        <v>32</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
+        <v>13</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="0">
+        <v>53</v>
+      </c>
+      <c r="D15" s="0">
+        <v>6905</v>
+      </c>
+      <c r="E15" s="0">
+        <v>8998</v>
+      </c>
+      <c r="F15" s="0">
+        <v>13</v>
+      </c>
+      <c r="G15" s="0">
+        <v>15</v>
+      </c>
+      <c r="H15" s="0">
+        <v>37</v>
+      </c>
+      <c r="I15" s="0">
+        <v>35</v>
+      </c>
+      <c r="J15" s="0">
+        <v>40</v>
+      </c>
+      <c r="K15" s="0">
+        <v>39</v>
+      </c>
+      <c r="L15" s="0">
+        <v>36</v>
+      </c>
+      <c r="M15" s="0">
+        <v>10</v>
+      </c>
+      <c r="N15" s="0">
+        <v>48</v>
+      </c>
+      <c r="O15" s="0">
+        <v>51</v>
+      </c>
+      <c r="P15" s="0">
+        <v>49</v>
+      </c>
+      <c r="Q15" s="0">
+        <v>52</v>
+      </c>
+      <c r="R15" s="0">
+        <v>50</v>
+      </c>
+      <c r="S15" s="0">
+        <v>33</v>
+      </c>
+      <c r="T15" s="0">
+        <v>30</v>
+      </c>
+      <c r="U15" s="0">
+        <v>0</v>
+      </c>
+      <c r="V15" s="0">
+        <v>4</v>
+      </c>
+      <c r="W15" s="0">
+        <v>20</v>
+      </c>
+      <c r="X15" s="0">
+        <v>24</v>
+      </c>
+      <c r="Y15" s="0">
+        <v>21</v>
+      </c>
+      <c r="Z15" s="0">
+        <v>6</v>
+      </c>
+      <c r="AA15" s="0">
+        <v>5</v>
+      </c>
+      <c r="AB15" s="0">
+        <v>8</v>
+      </c>
+      <c r="AC15" s="0">
+        <v>9</v>
+      </c>
+      <c r="AD15" s="0">
+        <v>7</v>
+      </c>
+      <c r="AE15" s="0">
+        <v>3</v>
+      </c>
+      <c r="AF15" s="0">
+        <v>2</v>
+      </c>
+      <c r="AG15" s="0">
+        <v>1</v>
+      </c>
+      <c r="AH15" s="0">
+        <v>41</v>
+      </c>
+      <c r="AI15" s="0">
+        <v>43</v>
+      </c>
+      <c r="AJ15" s="0">
+        <v>42</v>
+      </c>
+      <c r="AK15" s="0">
+        <v>46</v>
+      </c>
+      <c r="AL15" s="0">
+        <v>23</v>
+      </c>
+      <c r="AM15" s="0">
+        <v>22</v>
+      </c>
+      <c r="AN15" s="0">
+        <v>19</v>
+      </c>
+      <c r="AO15" s="0">
+        <v>18</v>
+      </c>
+      <c r="AP15" s="0">
+        <v>17</v>
+      </c>
+      <c r="AQ15" s="0">
+        <v>16</v>
+      </c>
+      <c r="AR15" s="0">
+        <v>11</v>
+      </c>
+      <c r="AS15" s="0">
+        <v>12</v>
+      </c>
+      <c r="AT15" s="0">
         <v>14</v>
       </c>
-      <c r="B15" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="0">
-        <v>56</v>
-      </c>
-      <c r="D15" s="0">
-        <v>1608</v>
-      </c>
-      <c r="E15" s="0">
-        <v>2475</v>
+      <c r="AU15" s="0">
+        <v>38</v>
+      </c>
+      <c r="AV15" s="0">
+        <v>45</v>
+      </c>
+      <c r="AW15" s="0">
+        <v>47</v>
+      </c>
+      <c r="AX15" s="0">
+        <v>44</v>
+      </c>
+      <c r="AY15" s="0">
+        <v>34</v>
+      </c>
+      <c r="AZ15" s="0">
+        <v>32</v>
+      </c>
+      <c r="BA15" s="0">
+        <v>31</v>
+      </c>
+      <c r="BB15" s="0">
+        <v>27</v>
+      </c>
+      <c r="BC15" s="0">
+        <v>29</v>
+      </c>
+      <c r="BD15" s="0">
+        <v>28</v>
+      </c>
+      <c r="BE15" s="0">
+        <v>25</v>
+      </c>
+      <c r="BF15" s="0">
+        <v>26</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
+        <v>14</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="0">
+        <v>56</v>
+      </c>
+      <c r="D16" s="0">
+        <v>1608</v>
+      </c>
+      <c r="E16" s="0">
+        <v>2966</v>
+      </c>
+      <c r="F16" s="0">
+        <v>5</v>
+      </c>
+      <c r="G16" s="0">
+        <v>10</v>
+      </c>
+      <c r="H16" s="0">
+        <v>51</v>
+      </c>
+      <c r="I16" s="0">
+        <v>12</v>
+      </c>
+      <c r="J16" s="0">
+        <v>32</v>
+      </c>
+      <c r="K16" s="0">
+        <v>8</v>
+      </c>
+      <c r="L16" s="0">
+        <v>42</v>
+      </c>
+      <c r="M16" s="0">
+        <v>49</v>
+      </c>
+      <c r="N16" s="0">
+        <v>29</v>
+      </c>
+      <c r="O16" s="0">
+        <v>24</v>
+      </c>
+      <c r="P16" s="0">
+        <v>54</v>
+      </c>
+      <c r="Q16" s="0">
+        <v>0</v>
+      </c>
+      <c r="R16" s="0">
+        <v>33</v>
+      </c>
+      <c r="S16" s="0">
+        <v>26</v>
+      </c>
+      <c r="T16" s="0">
+        <v>25</v>
+      </c>
+      <c r="U16" s="0">
+        <v>20</v>
+      </c>
+      <c r="V16" s="0">
+        <v>40</v>
+      </c>
+      <c r="W16" s="0">
+        <v>21</v>
+      </c>
+      <c r="X16" s="0">
+        <v>22</v>
+      </c>
+      <c r="Y16" s="0">
+        <v>41</v>
+      </c>
+      <c r="Z16" s="0">
+        <v>50</v>
+      </c>
+      <c r="AA16" s="0">
+        <v>23</v>
+      </c>
+      <c r="AB16" s="0">
+        <v>30</v>
+      </c>
+      <c r="AC16" s="0">
+        <v>46</v>
+      </c>
+      <c r="AD16" s="0">
+        <v>1</v>
+      </c>
+      <c r="AE16" s="0">
+        <v>2</v>
+      </c>
+      <c r="AF16" s="0">
+        <v>19</v>
+      </c>
+      <c r="AG16" s="0">
+        <v>18</v>
+      </c>
+      <c r="AH16" s="0">
+        <v>39</v>
+      </c>
+      <c r="AI16" s="0">
+        <v>38</v>
+      </c>
+      <c r="AJ16" s="0">
+        <v>37</v>
+      </c>
+      <c r="AK16" s="0">
+        <v>11</v>
+      </c>
+      <c r="AL16" s="0">
+        <v>14</v>
+      </c>
+      <c r="AM16" s="0">
+        <v>52</v>
+      </c>
+      <c r="AN16" s="0">
+        <v>27</v>
+      </c>
+      <c r="AO16" s="0">
+        <v>43</v>
+      </c>
+      <c r="AP16" s="0">
+        <v>53</v>
+      </c>
+      <c r="AQ16" s="0">
+        <v>17</v>
+      </c>
+      <c r="AR16" s="0">
+        <v>16</v>
+      </c>
+      <c r="AS16" s="0">
+        <v>34</v>
+      </c>
+      <c r="AT16" s="0">
+        <v>48</v>
+      </c>
+      <c r="AU16" s="0">
+        <v>3</v>
+      </c>
+      <c r="AV16" s="0">
+        <v>4</v>
+      </c>
+      <c r="AW16" s="0">
+        <v>7</v>
+      </c>
+      <c r="AX16" s="0">
+        <v>13</v>
+      </c>
+      <c r="AY16" s="0">
+        <v>35</v>
+      </c>
+      <c r="AZ16" s="0">
+        <v>36</v>
+      </c>
+      <c r="BA16" s="0">
+        <v>9</v>
+      </c>
+      <c r="BB16" s="0">
         <v>15</v>
       </c>
-      <c r="B16" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="0">
-        <v>65</v>
-      </c>
-      <c r="D16" s="0">
-        <v>1839</v>
-      </c>
-      <c r="E16" s="0">
-        <v>3127</v>
+      <c r="BC16" s="0">
+        <v>45</v>
+      </c>
+      <c r="BD16" s="0">
+        <v>44</v>
+      </c>
+      <c r="BE16" s="0">
+        <v>28</v>
+      </c>
+      <c r="BF16" s="0">
+        <v>55</v>
+      </c>
+      <c r="BG16" s="0">
+        <v>31</v>
+      </c>
+      <c r="BH16" s="0">
+        <v>47</v>
+      </c>
+      <c r="BI16" s="0">
+        <v>6</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
+        <v>15</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="0">
+        <v>65</v>
+      </c>
+      <c r="D17" s="0">
+        <v>1839</v>
+      </c>
+      <c r="E17" s="0">
+        <v>2820</v>
+      </c>
+      <c r="F17" s="0">
+        <v>48</v>
+      </c>
+      <c r="G17" s="0">
+        <v>4</v>
+      </c>
+      <c r="H17" s="0">
+        <v>39</v>
+      </c>
+      <c r="I17" s="0">
+        <v>6</v>
+      </c>
+      <c r="J17" s="0">
+        <v>5</v>
+      </c>
+      <c r="K17" s="0">
+        <v>7</v>
+      </c>
+      <c r="L17" s="0">
+        <v>8</v>
+      </c>
+      <c r="M17" s="0">
+        <v>40</v>
+      </c>
+      <c r="N17" s="0">
+        <v>60</v>
+      </c>
+      <c r="O17" s="0">
+        <v>14</v>
+      </c>
+      <c r="P17" s="0">
+        <v>47</v>
+      </c>
+      <c r="Q17" s="0">
+        <v>13</v>
+      </c>
+      <c r="R17" s="0">
         <v>16</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="S17" s="0">
+        <v>17</v>
+      </c>
+      <c r="T17" s="0">
+        <v>18</v>
+      </c>
+      <c r="U17" s="0">
+        <v>50</v>
+      </c>
+      <c r="V17" s="0">
+        <v>29</v>
+      </c>
+      <c r="W17" s="0">
+        <v>55</v>
+      </c>
+      <c r="X17" s="0">
+        <v>2</v>
+      </c>
+      <c r="Y17" s="0">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="0">
+        <v>61</v>
+      </c>
+      <c r="AA17" s="0">
+        <v>1</v>
+      </c>
+      <c r="AB17" s="0">
+        <v>37</v>
+      </c>
+      <c r="AC17" s="0">
+        <v>3</v>
+      </c>
+      <c r="AD17" s="0">
+        <v>36</v>
+      </c>
+      <c r="AE17" s="0">
+        <v>44</v>
+      </c>
+      <c r="AF17" s="0">
+        <v>12</v>
+      </c>
+      <c r="AG17" s="0">
+        <v>35</v>
+      </c>
+      <c r="AH17" s="0">
+        <v>20</v>
+      </c>
+      <c r="AI17" s="0">
+        <v>19</v>
+      </c>
+      <c r="AJ17" s="0">
+        <v>46</v>
+      </c>
+      <c r="AK17" s="0">
+        <v>45</v>
+      </c>
+      <c r="AL17" s="0">
+        <v>42</v>
+      </c>
+      <c r="AM17" s="0">
+        <v>43</v>
+      </c>
+      <c r="AN17" s="0">
+        <v>41</v>
+      </c>
+      <c r="AO17" s="0">
+        <v>9</v>
+      </c>
+      <c r="AP17" s="0">
+        <v>11</v>
+      </c>
+      <c r="AQ17" s="0">
+        <v>10</v>
+      </c>
+      <c r="AR17" s="0">
+        <v>15</v>
+      </c>
+      <c r="AS17" s="0">
+        <v>53</v>
+      </c>
+      <c r="AT17" s="0">
+        <v>62</v>
+      </c>
+      <c r="AU17" s="0">
+        <v>52</v>
+      </c>
+      <c r="AV17" s="0">
+        <v>51</v>
+      </c>
+      <c r="AW17" s="0">
+        <v>24</v>
+      </c>
+      <c r="AX17" s="0">
+        <v>30</v>
+      </c>
+      <c r="AY17" s="0">
+        <v>31</v>
+      </c>
+      <c r="AZ17" s="0">
+        <v>32</v>
+      </c>
+      <c r="BA17" s="0">
+        <v>54</v>
+      </c>
+      <c r="BB17" s="0">
+        <v>28</v>
+      </c>
+      <c r="BC17" s="0">
+        <v>27</v>
+      </c>
+      <c r="BD17" s="0">
+        <v>26</v>
+      </c>
+      <c r="BE17" s="0">
+        <v>23</v>
+      </c>
+      <c r="BF17" s="0">
+        <v>49</v>
+      </c>
+      <c r="BG17" s="0">
+        <v>22</v>
+      </c>
+      <c r="BH17" s="0">
+        <v>59</v>
+      </c>
+      <c r="BI17" s="0">
+        <v>63</v>
+      </c>
+      <c r="BJ17" s="0">
+        <v>33</v>
+      </c>
+      <c r="BK17" s="0">
+        <v>64</v>
+      </c>
+      <c r="BL17" s="0">
+        <v>38</v>
+      </c>
+      <c r="BM17" s="0">
+        <v>34</v>
+      </c>
+      <c r="BN17" s="0">
+        <v>57</v>
+      </c>
+      <c r="BO17" s="0">
+        <v>58</v>
+      </c>
+      <c r="BP17" s="0">
+        <v>56</v>
+      </c>
+      <c r="BQ17" s="0">
         <v>25</v>
       </c>
-      <c r="C17" s="0">
-        <v>76</v>
-      </c>
-      <c r="D17" s="0">
-        <v>538</v>
-      </c>
-      <c r="E17" s="0">
-        <v>733.76144051379924</v>
+      <c r="BR17" s="0">
+        <v>21</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
+        <v>16</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="0">
+        <v>76</v>
+      </c>
+      <c r="D18" s="0">
+        <v>538</v>
+      </c>
+      <c r="E18" s="0">
+        <v>1090.0447243760721</v>
+      </c>
+      <c r="F18" s="0">
+        <v>26</v>
+      </c>
+      <c r="G18" s="0">
+        <v>9</v>
+      </c>
+      <c r="H18" s="0">
+        <v>5</v>
+      </c>
+      <c r="I18" s="0">
+        <v>65</v>
+      </c>
+      <c r="J18" s="0">
         <v>17</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="K18" s="0">
+        <v>67</v>
+      </c>
+      <c r="L18" s="0">
+        <v>13</v>
+      </c>
+      <c r="M18" s="0">
+        <v>70</v>
+      </c>
+      <c r="N18" s="0">
+        <v>16</v>
+      </c>
+      <c r="O18" s="0">
+        <v>28</v>
+      </c>
+      <c r="P18" s="0">
+        <v>52</v>
+      </c>
+      <c r="Q18" s="0">
+        <v>25</v>
+      </c>
+      <c r="R18" s="0">
+        <v>47</v>
+      </c>
+      <c r="S18" s="0">
+        <v>46</v>
+      </c>
+      <c r="T18" s="0">
+        <v>4</v>
+      </c>
+      <c r="U18" s="0">
+        <v>44</v>
+      </c>
+      <c r="V18" s="0">
+        <v>51</v>
+      </c>
+      <c r="W18" s="0">
+        <v>7</v>
+      </c>
+      <c r="X18" s="0">
+        <v>45</v>
+      </c>
+      <c r="Y18" s="0">
+        <v>33</v>
+      </c>
+      <c r="Z18" s="0">
+        <v>3</v>
+      </c>
+      <c r="AA18" s="0">
+        <v>66</v>
+      </c>
+      <c r="AB18" s="0">
+        <v>75</v>
+      </c>
+      <c r="AC18" s="0">
+        <v>74</v>
+      </c>
+      <c r="AD18" s="0">
+        <v>50</v>
+      </c>
+      <c r="AE18" s="0">
+        <v>42</v>
+      </c>
+      <c r="AF18" s="0">
+        <v>40</v>
+      </c>
+      <c r="AG18" s="0">
+        <v>55</v>
+      </c>
+      <c r="AH18" s="0">
+        <v>22</v>
+      </c>
+      <c r="AI18" s="0">
+        <v>62</v>
+      </c>
+      <c r="AJ18" s="0">
+        <v>32</v>
+      </c>
+      <c r="AK18" s="0">
+        <v>72</v>
+      </c>
+      <c r="AL18" s="0">
+        <v>1</v>
+      </c>
+      <c r="AM18" s="0">
+        <v>29</v>
+      </c>
+      <c r="AN18" s="0">
+        <v>73</v>
+      </c>
+      <c r="AO18" s="0">
+        <v>27</v>
+      </c>
+      <c r="AP18" s="0">
+        <v>21</v>
+      </c>
+      <c r="AQ18" s="0">
+        <v>63</v>
+      </c>
+      <c r="AR18" s="0">
+        <v>41</v>
+      </c>
+      <c r="AS18" s="0">
+        <v>0</v>
+      </c>
+      <c r="AT18" s="0">
+        <v>61</v>
+      </c>
+      <c r="AU18" s="0">
+        <v>20</v>
+      </c>
+      <c r="AV18" s="0">
+        <v>36</v>
+      </c>
+      <c r="AW18" s="0">
+        <v>14</v>
+      </c>
+      <c r="AX18" s="0">
+        <v>56</v>
+      </c>
+      <c r="AY18" s="0">
+        <v>12</v>
+      </c>
+      <c r="AZ18" s="0">
+        <v>53</v>
+      </c>
+      <c r="BA18" s="0">
+        <v>18</v>
+      </c>
+      <c r="BB18" s="0">
+        <v>6</v>
+      </c>
+      <c r="BC18" s="0">
+        <v>11</v>
+      </c>
+      <c r="BD18" s="0">
+        <v>39</v>
+      </c>
+      <c r="BE18" s="0">
+        <v>2</v>
+      </c>
+      <c r="BF18" s="0">
+        <v>43</v>
+      </c>
+      <c r="BG18" s="0">
+        <v>49</v>
+      </c>
+      <c r="BH18" s="0">
+        <v>31</v>
+      </c>
+      <c r="BI18" s="0">
+        <v>57</v>
+      </c>
+      <c r="BJ18" s="0">
+        <v>34</v>
+      </c>
+      <c r="BK18" s="0">
+        <v>58</v>
+      </c>
+      <c r="BL18" s="0">
+        <v>10</v>
+      </c>
+      <c r="BM18" s="0">
+        <v>64</v>
+      </c>
+      <c r="BN18" s="0">
+        <v>37</v>
+      </c>
+      <c r="BO18" s="0">
+        <v>71</v>
+      </c>
+      <c r="BP18" s="0">
+        <v>38</v>
+      </c>
+      <c r="BQ18" s="0">
+        <v>8</v>
+      </c>
+      <c r="BR18" s="0">
+        <v>30</v>
+      </c>
+      <c r="BS18" s="0">
+        <v>54</v>
+      </c>
+      <c r="BT18" s="0">
+        <v>24</v>
+      </c>
+      <c r="BU18" s="0">
+        <v>23</v>
+      </c>
+      <c r="BV18" s="0">
+        <v>48</v>
+      </c>
+      <c r="BW18" s="0">
+        <v>15</v>
+      </c>
+      <c r="BX18" s="0">
+        <v>60</v>
+      </c>
+      <c r="BY18" s="0">
+        <v>68</v>
+      </c>
+      <c r="BZ18" s="0">
+        <v>35</v>
+      </c>
+      <c r="CA18" s="0">
+        <v>59</v>
+      </c>
+      <c r="CB18" s="0">
+        <v>69</v>
+      </c>
+      <c r="CC18" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
+        <v>17</v>
+      </c>
+      <c r="B19" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="0">
+      <c r="C19" s="0">
         <v>101</v>
       </c>
-      <c r="D18" s="0">
+      <c r="D19" s="0">
         <v>629</v>
       </c>
-      <c r="E18" s="0">
-        <v>871.00764027830689</v>
+      <c r="E19" s="0">
+        <v>917.6095121931528</v>
+      </c>
+      <c r="F19" s="0">
+        <v>78</v>
+      </c>
+      <c r="G19" s="0">
+        <v>53</v>
+      </c>
+      <c r="H19" s="0">
+        <v>25</v>
+      </c>
+      <c r="I19" s="0">
+        <v>39</v>
+      </c>
+      <c r="J19" s="0">
+        <v>57</v>
+      </c>
+      <c r="K19" s="0">
+        <v>12</v>
+      </c>
+      <c r="L19" s="0">
+        <v>93</v>
+      </c>
+      <c r="M19" s="0">
+        <v>94</v>
+      </c>
+      <c r="N19" s="0">
+        <v>91</v>
+      </c>
+      <c r="O19" s="0">
+        <v>58</v>
+      </c>
+      <c r="P19" s="0">
+        <v>98</v>
+      </c>
+      <c r="Q19" s="0">
+        <v>83</v>
+      </c>
+      <c r="R19" s="0">
+        <v>4</v>
+      </c>
+      <c r="S19" s="0">
+        <v>95</v>
+      </c>
+      <c r="T19" s="0">
+        <v>5</v>
+      </c>
+      <c r="U19" s="0">
+        <v>52</v>
+      </c>
+      <c r="V19" s="0">
+        <v>100</v>
+      </c>
+      <c r="W19" s="0">
+        <v>27</v>
+      </c>
+      <c r="X19" s="0">
+        <v>32</v>
+      </c>
+      <c r="Y19" s="0">
+        <v>80</v>
+      </c>
+      <c r="Z19" s="0">
+        <v>50</v>
+      </c>
+      <c r="AA19" s="0">
+        <v>0</v>
+      </c>
+      <c r="AB19" s="0">
+        <v>68</v>
+      </c>
+      <c r="AC19" s="0">
+        <v>26</v>
+      </c>
+      <c r="AD19" s="0">
+        <v>88</v>
+      </c>
+      <c r="AE19" s="0">
+        <v>17</v>
+      </c>
+      <c r="AF19" s="0">
+        <v>81</v>
+      </c>
+      <c r="AG19" s="0">
+        <v>47</v>
+      </c>
+      <c r="AH19" s="0">
+        <v>18</v>
+      </c>
+      <c r="AI19" s="0">
+        <v>10</v>
+      </c>
+      <c r="AJ19" s="0">
+        <v>62</v>
+      </c>
+      <c r="AK19" s="0">
+        <v>89</v>
+      </c>
+      <c r="AL19" s="0">
+        <v>31</v>
+      </c>
+      <c r="AM19" s="0">
+        <v>19</v>
+      </c>
+      <c r="AN19" s="0">
+        <v>65</v>
+      </c>
+      <c r="AO19" s="0">
+        <v>64</v>
+      </c>
+      <c r="AP19" s="0">
+        <v>70</v>
+      </c>
+      <c r="AQ19" s="0">
+        <v>3</v>
+      </c>
+      <c r="AR19" s="0">
+        <v>55</v>
+      </c>
+      <c r="AS19" s="0">
+        <v>22</v>
+      </c>
+      <c r="AT19" s="0">
+        <v>74</v>
+      </c>
+      <c r="AU19" s="0">
+        <v>71</v>
+      </c>
+      <c r="AV19" s="0">
+        <v>72</v>
+      </c>
+      <c r="AW19" s="0">
+        <v>1</v>
+      </c>
+      <c r="AX19" s="0">
+        <v>56</v>
+      </c>
+      <c r="AY19" s="0">
+        <v>86</v>
+      </c>
+      <c r="AZ19" s="0">
+        <v>96</v>
+      </c>
+      <c r="BA19" s="0">
+        <v>59</v>
+      </c>
+      <c r="BB19" s="0">
+        <v>82</v>
+      </c>
+      <c r="BC19" s="0">
+        <v>6</v>
+      </c>
+      <c r="BD19" s="0">
+        <v>87</v>
+      </c>
+      <c r="BE19" s="0">
+        <v>30</v>
+      </c>
+      <c r="BF19" s="0">
+        <v>69</v>
+      </c>
+      <c r="BG19" s="0">
+        <v>49</v>
+      </c>
+      <c r="BH19" s="0">
+        <v>75</v>
+      </c>
+      <c r="BI19" s="0">
+        <v>11</v>
+      </c>
+      <c r="BJ19" s="0">
+        <v>79</v>
+      </c>
+      <c r="BK19" s="0">
+        <v>67</v>
+      </c>
+      <c r="BL19" s="0">
+        <v>76</v>
+      </c>
+      <c r="BM19" s="0">
+        <v>2</v>
+      </c>
+      <c r="BN19" s="0">
+        <v>28</v>
+      </c>
+      <c r="BO19" s="0">
+        <v>23</v>
+      </c>
+      <c r="BP19" s="0">
+        <v>54</v>
+      </c>
+      <c r="BQ19" s="0">
+        <v>24</v>
+      </c>
+      <c r="BR19" s="0">
+        <v>66</v>
+      </c>
+      <c r="BS19" s="0">
+        <v>38</v>
+      </c>
+      <c r="BT19" s="0">
+        <v>41</v>
+      </c>
+      <c r="BU19" s="0">
+        <v>99</v>
+      </c>
+      <c r="BV19" s="0">
+        <v>90</v>
+      </c>
+      <c r="BW19" s="0">
+        <v>36</v>
+      </c>
+      <c r="BX19" s="0">
+        <v>97</v>
+      </c>
+      <c r="BY19" s="0">
+        <v>92</v>
+      </c>
+      <c r="BZ19" s="0">
+        <v>84</v>
+      </c>
+      <c r="CA19" s="0">
+        <v>15</v>
+      </c>
+      <c r="CB19" s="0">
+        <v>60</v>
+      </c>
+      <c r="CC19" s="0">
+        <v>16</v>
+      </c>
+      <c r="CD19" s="0">
+        <v>44</v>
+      </c>
+      <c r="CE19" s="0">
+        <v>45</v>
+      </c>
+      <c r="CF19" s="0">
+        <v>46</v>
+      </c>
+      <c r="CG19" s="0">
+        <v>35</v>
+      </c>
+      <c r="CH19" s="0">
+        <v>48</v>
+      </c>
+      <c r="CI19" s="0">
+        <v>63</v>
+      </c>
+      <c r="CJ19" s="0">
+        <v>61</v>
+      </c>
+      <c r="CK19" s="0">
+        <v>51</v>
+      </c>
+      <c r="CL19" s="0">
+        <v>20</v>
+      </c>
+      <c r="CM19" s="0">
+        <v>73</v>
+      </c>
+      <c r="CN19" s="0">
+        <v>21</v>
+      </c>
+      <c r="CO19" s="0">
+        <v>40</v>
+      </c>
+      <c r="CP19" s="0">
+        <v>14</v>
+      </c>
+      <c r="CQ19" s="0">
+        <v>42</v>
+      </c>
+      <c r="CR19" s="0">
+        <v>13</v>
+      </c>
+      <c r="CS19" s="0">
+        <v>43</v>
+      </c>
+      <c r="CT19" s="0">
+        <v>37</v>
+      </c>
+      <c r="CU19" s="0">
+        <v>85</v>
+      </c>
+      <c r="CV19" s="0">
+        <v>7</v>
+      </c>
+      <c r="CW19" s="0">
+        <v>9</v>
+      </c>
+      <c r="CX19" s="0">
+        <v>29</v>
+      </c>
+      <c r="CY19" s="0">
+        <v>8</v>
+      </c>
+      <c r="CZ19" s="0">
+        <v>34</v>
+      </c>
+      <c r="DA19" s="0">
+        <v>33</v>
+      </c>
+      <c r="DB19" s="0">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
